--- a/data/trans_bre/P23_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Estudios-trans_bre.xlsx
@@ -541,22 +541,22 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,23</t>
+          <t>-22,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-16,47</t>
+          <t>-19,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-55,2%</t>
+          <t>-63,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-63,64%</t>
+          <t>-56,5%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,68; -11,07</t>
+          <t>-26,59; -19,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,71; -12,52</t>
+          <t>-23,08; -15,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-62,91; -44,06</t>
+          <t>-68,4; -56,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-71,18; -54,62</t>
+          <t>-63,01; -48,91</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>-13,77</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-7,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,42%</t>
+          <t>-28,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-19,52%</t>
+          <t>-16,73%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -2,39</t>
+          <t>-17,17; -10,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,7; -1,82</t>
+          <t>-10,64; -3,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,04; -6,62</t>
+          <t>-34,3; -22,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,32; -7,68</t>
+          <t>-23,68; -9,4</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,85%</t>
+          <t>-16,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-10,24%</t>
+          <t>-9,39%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 2,31</t>
+          <t>-11,68; 0,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 1,93</t>
+          <t>-9,18; 3,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-33,19; 12,88</t>
+          <t>-31,34; 0,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 15,83</t>
+          <t>-25,72; 11,31</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,13</t>
+          <t>-16,74</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,7</t>
+          <t>-12,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-25,36%</t>
+          <t>-39,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-28,7%</t>
+          <t>-30,47%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -5,98</t>
+          <t>-19,2; -14,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,85; -4,49</t>
+          <t>-14,64; -9,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,48; -19,17</t>
+          <t>-44,14; -35,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,29; -20,28</t>
+          <t>-35,79; -25,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Estudios-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,59; -19,44</t>
+          <t>-26,23; -19,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,08; -15,83</t>
+          <t>-23,17; -15,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-68,4; -56,63</t>
+          <t>-68,37; -56,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-63,01; -48,91</t>
+          <t>-62,53; -48,7</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,17; -10,41</t>
+          <t>-17,19; -10,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -3,86</t>
+          <t>-10,49; -3,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,3; -22,04</t>
+          <t>-34,48; -22,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,68; -9,4</t>
+          <t>-23,26; -9,32</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 0,36</t>
+          <t>-12,02; -0,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 3,37</t>
+          <t>-9,99; 3,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 0,53</t>
+          <t>-31,7; 0,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 11,31</t>
+          <t>-26,99; 12,44</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,2; -14,72</t>
+          <t>-19,23; -14,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,64; -9,78</t>
+          <t>-14,36; -9,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,14; -35,64</t>
+          <t>-43,99; -35,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,79; -25,68</t>
+          <t>-35,3; -25,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,23; -19,39</t>
+          <t>-26,42; -19,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,17; -15,62</t>
+          <t>-23,12; -15,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-68,37; -56,77</t>
+          <t>-68,5; -55,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-62,53; -48,7</t>
+          <t>-62,99; -49,09</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,19; -10,61</t>
+          <t>-17,39; -10,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,49; -3,96</t>
+          <t>-10,32; -3,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,48; -22,83</t>
+          <t>-34,77; -22,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,26; -9,32</t>
+          <t>-23,34; -9,59</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,02; -0,02</t>
+          <t>-11,51; 0,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 3,82</t>
+          <t>-9,86; 3,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 0,18</t>
+          <t>-30,63; 0,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 12,44</t>
+          <t>-26,22; 10,08</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,23; -14,65</t>
+          <t>-18,96; -14,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,36; -9,95</t>
+          <t>-14,38; -9,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,99; -35,45</t>
+          <t>-43,67; -35,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,3; -25,76</t>
+          <t>-35,23; -24,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Estudios-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,12 +521,14 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -591,12 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>-16,16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-63,06%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-56,5%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-54,06%</t>
         </is>
       </c>
     </row>
@@ -619,12 +652,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>-19,82; -12,03</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-68,5; -55,97</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>-62,99; -49,09</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-61,97; -44,43</t>
         </is>
       </c>
     </row>
@@ -651,12 +694,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>-5,91</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-28,52%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-16,73%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-15,06%</t>
         </is>
       </c>
     </row>
@@ -679,12 +732,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>-9,15; -3,15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-34,77; -22,91</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>-23,34; -9,59</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-22,29; -8,3</t>
         </is>
       </c>
     </row>
@@ -711,12 +774,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>-3,27</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-16,75%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-9,39%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-12,8%</t>
         </is>
       </c>
     </row>
@@ -739,12 +812,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>-8,34; 2,46</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-30,63; 0,09</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>-26,22; 10,08</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-30,06; 11,48</t>
         </is>
       </c>
     </row>
@@ -771,12 +854,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>-8,84</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-39,59%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-30,47%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-25,3%</t>
         </is>
       </c>
     </row>
@@ -799,12 +892,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>-11,25; -6,51</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-43,67; -35,4</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>-35,23; -24,72</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-30,88; -19,18</t>
         </is>
       </c>
     </row>
@@ -817,10 +920,10 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/trans_bre/P23_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Estudios-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,42; -19,16</t>
+          <t>-26,08; -19,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,12; -15,81</t>
+          <t>-22,92; -15,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,82; -12,03</t>
+          <t>-19,77; -11,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-68,5; -55,97</t>
+          <t>-68,71; -56,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-62,99; -49,09</t>
+          <t>-62,87; -48,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-61,97; -44,43</t>
+          <t>-62,18; -44,22</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,39; -10,51</t>
+          <t>-17,6; -10,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -3,99</t>
+          <t>-10,3; -3,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,15; -3,15</t>
+          <t>-8,9; -2,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,77; -22,91</t>
+          <t>-35,02; -22,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,34; -9,59</t>
+          <t>-22,98; -9,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,29; -8,3</t>
+          <t>-21,77; -7,98</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 0,07</t>
+          <t>-11,74; 0,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 3,02</t>
+          <t>-9,29; 3,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 2,46</t>
+          <t>-8,42; 1,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 0,09</t>
+          <t>-31,34; 0,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 10,08</t>
+          <t>-25,1; 12,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 11,48</t>
+          <t>-30,41; 8,55</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -14,68</t>
+          <t>-18,98; -14,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,38; -9,54</t>
+          <t>-14,19; -9,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,25; -6,51</t>
+          <t>-10,98; -6,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,67; -35,4</t>
+          <t>-43,56; -34,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,23; -24,72</t>
+          <t>-34,78; -24,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,88; -19,18</t>
+          <t>-30,52; -19,4</t>
         </is>
       </c>
     </row>
